--- a/등록양식.xlsx
+++ b/등록양식.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28650" windowHeight="13815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>PAY_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,30 @@
 -&gt;이렇게 수정해 주세요
 2-2 두 번째 수정사항
 -&gt; 이렇게 수정해 주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김영준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np_test003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페마스터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,27 +512,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:O7"/>
+  <dimension ref="C1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.125" customWidth="1"/>
-    <col min="15" max="15" width="1.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.125" customWidth="1"/>
+    <col min="16" max="16" width="1.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,123 +570,154 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:15" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:16" ht="66" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:15" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:16" ht="66" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="O7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="G6" r:id="rId3"/>
-    <hyperlink ref="G7" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6"/>
-    <hyperlink ref="M6" r:id="rId7"/>
-    <hyperlink ref="M7" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G7" r:id="rId2"/>
+    <hyperlink ref="L6" r:id="rId3"/>
+    <hyperlink ref="L7" r:id="rId4"/>
+    <hyperlink ref="N6" r:id="rId5"/>
+    <hyperlink ref="N7" r:id="rId6"/>
+    <hyperlink ref="H6" r:id="rId7"/>
+    <hyperlink ref="H7" r:id="rId8"/>
+    <hyperlink ref="G8" r:id="rId9"/>
+    <hyperlink ref="H8" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/등록양식.xlsx
+++ b/등록양식.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geonil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26085" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
   <si>
     <t>PAY_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,12 +135,131 @@
     <t>카페마스터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>고도몰 수정 메일 발송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가맹점이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검수자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내공유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상오픈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장건일</t>
+  </si>
+  <si>
+    <t>장건일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고도몰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예쁜옷집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘된옷집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고도몰5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.google.co.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1 첫 번째 수정사항
+-&gt;이렇게 수정해 주세요
+2-4 두 번째 수정사항
+-&gt; 이렇게 수정해 주세요</t>
+  </si>
+  <si>
+    <t>http://www.naverpay.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미용실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1 첫 번째 수정사항
+-&gt;이렇게 수정해 주세요
+1-2 두 번째 수정사항
+-&gt; 이렇게 수정해 주세요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀리옹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://skin-skin1.milliong01.cafe24.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페24</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +284,32 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,8 +322,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -203,6 +358,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -212,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,14 +407,63 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -512,20 +738,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:P8"/>
+  <dimension ref="C1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.125" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
     <col min="12" max="12" width="24.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.375" bestFit="1" customWidth="1"/>
@@ -685,7 +911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:16" ht="66" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
@@ -704,8 +930,268 @@
       <c r="H8" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="4:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D18" s="6"/>
+      <c r="E18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="4:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="4:13" ht="66" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L23" s="7"/>
+      <c r="M23" s="10" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E16:M17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1"/>
@@ -718,7 +1204,19 @@
     <hyperlink ref="H7" r:id="rId8"/>
     <hyperlink ref="G8" r:id="rId9"/>
     <hyperlink ref="H8" r:id="rId10"/>
+    <hyperlink ref="G9" r:id="rId11"/>
+    <hyperlink ref="H9" r:id="rId12"/>
+    <hyperlink ref="H19" r:id="rId13"/>
+    <hyperlink ref="H20" r:id="rId14"/>
+    <hyperlink ref="H21" r:id="rId15"/>
+    <hyperlink ref="H22" r:id="rId16"/>
+    <hyperlink ref="H23" r:id="rId17"/>
+    <hyperlink ref="L8" r:id="rId18"/>
+    <hyperlink ref="L9" r:id="rId19"/>
+    <hyperlink ref="N8" r:id="rId20"/>
+    <hyperlink ref="N9" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/등록양식.xlsx
+++ b/등록양식.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geonil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
   <si>
     <t>PAY_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,30 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>호스팅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김영준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>np_test003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페마스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>고도몰 수정 메일 발송</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,12 +230,146 @@
   <si>
     <t>카페24</t>
   </si>
+  <si>
+    <t>네이버페이 아이디</t>
+  </si>
+  <si>
+    <t>가맹점명</t>
+  </si>
+  <si>
+    <t>담당자</t>
+  </si>
+  <si>
+    <t>np_drwry528060</t>
+  </si>
+  <si>
+    <t>글로이즈</t>
+  </si>
+  <si>
+    <t>http://cornerlab.cafe24.com</t>
+  </si>
+  <si>
+    <t>happyrane@naver.com;tapeoff@naver.com</t>
+  </si>
+  <si>
+    <t>np_eepts604570</t>
+  </si>
+  <si>
+    <t>와따부직포</t>
+  </si>
+  <si>
+    <t>http://www.okwadda.co.kr</t>
+  </si>
+  <si>
+    <t>okwadda@naver.com;kyunjinhyuk6@naver.com</t>
+  </si>
+  <si>
+    <t>np_fgvik167194</t>
+  </si>
+  <si>
+    <t>바이비엘</t>
+  </si>
+  <si>
+    <t>https://byvaile.com</t>
+  </si>
+  <si>
+    <t>hi@byvaile.com</t>
+  </si>
+  <si>
+    <t>np_smozb074414</t>
+  </si>
+  <si>
+    <t>아이오에스</t>
+  </si>
+  <si>
+    <t>http://dollios.kr</t>
+  </si>
+  <si>
+    <t>socoolife@naver.com</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>이메일</t>
+  </si>
+  <si>
+    <t>카페최종승인 요청메일 보내기 양식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 수정사항 보내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가맹점ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가맹점명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호스팅사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np_xifmn495491</t>
+  </si>
+  <si>
+    <t>다원펫-반려동물 전문브랜드</t>
+  </si>
+  <si>
+    <t>이민석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고도몰5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dawonpet.com</t>
+  </si>
+  <si>
+    <t>shesmoon</t>
+  </si>
+  <si>
+    <t>쉬즈문</t>
+  </si>
+  <si>
+    <t>shesmoon.co.kr</t>
+  </si>
+  <si>
+    <t>np_eqbbn806880</t>
+  </si>
+  <si>
+    <t>wmall</t>
+  </si>
+  <si>
+    <t>고도몰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wmall.or.kr</t>
+  </si>
+  <si>
+    <t>최종승인요청 메일 고도몰 양식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,8 +418,43 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="나눔고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,8 +479,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -380,6 +543,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -389,7 +561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -428,13 +600,169 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -460,8 +788,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -738,17 +1066,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:P23"/>
+  <dimension ref="C2:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.125" customWidth="1"/>
@@ -759,54 +1088,51 @@
     <col min="16" max="16" width="1.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
+    <row r="2" spans="3:16" x14ac:dyDescent="0.3">
       <c r="H2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:16" hidden="1" x14ac:dyDescent="0.3">
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
       <c r="H3">
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="J4" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+    </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="H5" s="15"/>
       <c r="J5" s="1" t="s">
         <v>0</v>
       </c>
@@ -831,23 +1157,21 @@
     </row>
     <row r="6" spans="3:16" ht="66" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H6" s="14"/>
       <c r="J6" s="2" t="s">
         <v>5</v>
       </c>
@@ -872,23 +1196,21 @@
     </row>
     <row r="7" spans="3:16" ht="66" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H7" s="14"/>
       <c r="J7" s="2" t="s">
         <v>6</v>
       </c>
@@ -913,23 +1235,21 @@
     </row>
     <row r="8" spans="3:16" ht="66" x14ac:dyDescent="0.3">
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H8" s="14"/>
       <c r="J8" s="2" t="s">
         <v>5</v>
       </c>
@@ -954,23 +1274,21 @@
     </row>
     <row r="9" spans="3:16" ht="66" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>11</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="H9" s="14"/>
       <c r="J9" s="2" t="s">
         <v>6</v>
       </c>
@@ -997,7 +1315,7 @@
     <row r="13" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E16" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -1022,201 +1340,401 @@
     <row r="18" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D18" s="6"/>
       <c r="E18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="M18" s="5"/>
     </row>
     <row r="19" spans="4:13" ht="66" x14ac:dyDescent="0.3">
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="4:13" ht="66" x14ac:dyDescent="0.3">
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="H21" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="4:13" ht="66" x14ac:dyDescent="0.3">
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="10" t="s">
-        <v>50</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E28" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E29" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="E30" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="E31" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="E32" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="E16:M17"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="E28:I28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H30:H47">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$F30="고도몰"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:I47">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$E30="이연재"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$E30="김지민"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>$E30="이민석"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$E30="장건일"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1"/>
-    <hyperlink ref="G7" r:id="rId2"/>
+    <hyperlink ref="G6" r:id="rId1" display="http://www.naver.com"/>
+    <hyperlink ref="G7" r:id="rId2" display="http://www.naverpay.com"/>
     <hyperlink ref="L6" r:id="rId3"/>
     <hyperlink ref="L7" r:id="rId4"/>
     <hyperlink ref="N6" r:id="rId5"/>
     <hyperlink ref="N7" r:id="rId6"/>
-    <hyperlink ref="H6" r:id="rId7"/>
-    <hyperlink ref="H7" r:id="rId8"/>
-    <hyperlink ref="G8" r:id="rId9"/>
-    <hyperlink ref="H8" r:id="rId10"/>
-    <hyperlink ref="G9" r:id="rId11"/>
-    <hyperlink ref="H9" r:id="rId12"/>
-    <hyperlink ref="H19" r:id="rId13"/>
-    <hyperlink ref="H20" r:id="rId14"/>
-    <hyperlink ref="H21" r:id="rId15"/>
-    <hyperlink ref="H22" r:id="rId16"/>
-    <hyperlink ref="H23" r:id="rId17"/>
-    <hyperlink ref="L8" r:id="rId18"/>
-    <hyperlink ref="L9" r:id="rId19"/>
-    <hyperlink ref="N8" r:id="rId20"/>
-    <hyperlink ref="N9" r:id="rId21"/>
+    <hyperlink ref="G8" r:id="rId7" display="http://www.naverpay.com"/>
+    <hyperlink ref="G9" r:id="rId8" display="http://www.naver.com"/>
+    <hyperlink ref="H19" r:id="rId9"/>
+    <hyperlink ref="H20" r:id="rId10"/>
+    <hyperlink ref="H21" r:id="rId11"/>
+    <hyperlink ref="H22" r:id="rId12"/>
+    <hyperlink ref="H23" r:id="rId13"/>
+    <hyperlink ref="L8" r:id="rId14"/>
+    <hyperlink ref="L9" r:id="rId15"/>
+    <hyperlink ref="N8" r:id="rId16"/>
+    <hyperlink ref="N9" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>